--- a/data_year/zb/农业/牲畜出栏量.xlsx
+++ b/data_year/zb/农业/牲畜出栏量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,330 +453,202 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825703.868352472</v>
+        <v>1122429.12188372</v>
       </c>
       <c r="C2" t="n">
-        <v>3806.9</v>
+        <v>4318.2921685191</v>
       </c>
       <c r="D2" t="n">
-        <v>19653.436943099</v>
+        <v>26808.3181027972</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>813679.738725546</v>
+        <v>1160716.81988533</v>
       </c>
       <c r="C3" t="n">
-        <v>3794.8</v>
+        <v>4200.63315821866</v>
       </c>
       <c r="D3" t="n">
-        <v>19996.8262466826</v>
+        <v>26232.1640719654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827061.208070017</v>
+        <v>1244696.36849221</v>
       </c>
       <c r="C4" t="n">
-        <v>3896.2</v>
+        <v>4219.29140686764</v>
       </c>
       <c r="D4" t="n">
-        <v>20560.0409594026</v>
+        <v>26606.2120737932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>871364.931731489</v>
+        <v>1232371.60184321</v>
       </c>
       <c r="C5" t="n">
-        <v>4000.1</v>
+        <v>4189.89992990652</v>
       </c>
       <c r="D5" t="n">
-        <v>22028.7678423701</v>
+        <v>26962.6818387152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877852.493922802</v>
+        <v>1202592.00951472</v>
       </c>
       <c r="C6" t="n">
-        <v>4101</v>
+        <v>4200.40679494972</v>
       </c>
       <c r="D6" t="n">
-        <v>23092.6256418726</v>
+        <v>28051.3908781881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943091.386713287</v>
+        <v>1259132.00005221</v>
       </c>
       <c r="C7" t="n">
-        <v>4148.7</v>
+        <v>4211.43921835381</v>
       </c>
       <c r="D7" t="n">
-        <v>24091.9712340896</v>
+        <v>28761.3978300345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>930548.27127</v>
+        <v>1319534.21879569</v>
       </c>
       <c r="C8" t="n">
-        <v>4226.81665297247</v>
+        <v>4264.95057582466</v>
       </c>
       <c r="D8" t="n">
-        <v>24709.3890007964</v>
+        <v>30005.3103718553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>963219.775536572</v>
+        <v>1302190.57</v>
       </c>
       <c r="C9" t="n">
-        <v>4307.04582664503</v>
+        <v>4340.25988207897</v>
       </c>
       <c r="D9" t="n">
-        <v>25545.6749742406</v>
+        <v>30797.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1032426.30387511</v>
+        <v>1308936.04</v>
       </c>
       <c r="C10" t="n">
-        <v>4243.09726840935</v>
+        <v>4397.48323953924</v>
       </c>
       <c r="D10" t="n">
-        <v>25926.6463118846</v>
+        <v>31010.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1076672.81509065</v>
+        <v>1464062.2290628</v>
       </c>
       <c r="C11" t="n">
-        <v>4292.27772549071</v>
+        <v>4533.86955845411</v>
       </c>
       <c r="D11" t="n">
-        <v>26434.4998144599</v>
+        <v>31698.9018475957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1122429.12188372</v>
+        <v>1557008.00414752</v>
       </c>
       <c r="C12" t="n">
-        <v>4318.2921685191</v>
+        <v>4565.45419939561</v>
       </c>
       <c r="D12" t="n">
-        <v>26808.3181027972</v>
+        <v>31941.2994664503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1160716.81988533</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>4200.63315821866</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26232.1640719654</v>
-      </c>
+        <v>4707.42935760008</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1244696.36849221</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>4219.29140686764</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26606.2120737932</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1232371.60184321</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4189.89992990652</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26962.6818387152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1202592.00951472</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4200.40679494972</v>
-      </c>
-      <c r="D16" t="n">
-        <v>28051.3908781881</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1259132.00005221</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4211.43921835381</v>
-      </c>
-      <c r="D17" t="n">
-        <v>28761.3978300345</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1319534.21879569</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4264.95057582466</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30005.3103718553</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1302190.57</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4340.25988207897</v>
-      </c>
-      <c r="D19" t="n">
-        <v>30797.71</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1308936.04</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4397.48323953924</v>
-      </c>
-      <c r="D20" t="n">
-        <v>31010.49</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>4533.86955845411</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>4565.45419939561</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>4839.91497276742</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
